--- a/tabular/ifnl-data.xlsx
+++ b/tabular/ifnl-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11920" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="15840" yWindow="260" windowWidth="30940" windowHeight="19620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>Camelus_bactriaus_IFNL1</t>
   </si>
@@ -76,6 +76,54 @@
   </si>
   <si>
     <t>Interferon lambda 1</t>
+  </si>
+  <si>
+    <t>Ochotona_princeps_IFNL1</t>
+  </si>
+  <si>
+    <t>Oryctolagus_cuniculus_IFNL1</t>
+  </si>
+  <si>
+    <t>Cebus_capucinus_IFNL1</t>
+  </si>
+  <si>
+    <t>Cercocebus_atys_IFNL1</t>
+  </si>
+  <si>
+    <t>Colobus_angolensis_palliatus_IFNL1</t>
+  </si>
+  <si>
+    <t>Gorilla_gorilla_IFNL1</t>
+  </si>
+  <si>
+    <t>Homo_sapiens_IFNL1</t>
+  </si>
+  <si>
+    <t>Macaca_fascicularis_IFNL1</t>
+  </si>
+  <si>
+    <t>Macaca_fuscata_IFNL1</t>
+  </si>
+  <si>
+    <t>Macaca_mulatta_IFNL1</t>
+  </si>
+  <si>
+    <t>Macaca_nemestrina_IFNL1</t>
+  </si>
+  <si>
+    <t>Mandrillus_leucophaeus_IFNL1</t>
+  </si>
+  <si>
+    <t>Pongo_abelii_IFNL1</t>
+  </si>
+  <si>
+    <t>Propithecus_coquereli_IFNL1</t>
+  </si>
+  <si>
+    <t>Saimiri_boliviensis_IFNL1</t>
+  </si>
+  <si>
+    <t>Theropithecus_gelada_IFNL1</t>
   </si>
 </sst>
 </file>
@@ -487,15 +535,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:C15"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
@@ -662,6 +710,182 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
         <v>18</v>
       </c>
     </row>

--- a/tabular/ifnl-data.xlsx
+++ b/tabular/ifnl-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="260" windowWidth="30940" windowHeight="19620" tabRatio="500"/>
+    <workbookView xWindow="8940" yWindow="10300" windowWidth="30940" windowHeight="19620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
   <si>
     <t>Camelus_bactriaus_IFNL1</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Gorilla_gorilla_IFNL1</t>
   </si>
   <si>
-    <t>Homo_sapiens_IFNL1</t>
-  </si>
-  <si>
     <t>Macaca_fascicularis_IFNL1</t>
   </si>
   <si>
@@ -124,6 +121,39 @@
   </si>
   <si>
     <t>Theropithecus_gelada_IFNL1</t>
+  </si>
+  <si>
+    <t>mRNA-ID</t>
+  </si>
+  <si>
+    <t>Gene-ID</t>
+  </si>
+  <si>
+    <t>GeneStart</t>
+  </si>
+  <si>
+    <t>GeneEnd</t>
+  </si>
+  <si>
+    <t>IFNLA-PSI</t>
+  </si>
+  <si>
+    <t>IFNLA-Primate-Homo_sapiens|NM_001276254.2</t>
+  </si>
+  <si>
+    <t>IFNLB-PSI</t>
+  </si>
+  <si>
+    <t>IFNLB-Retro-1|pig|NM_001142837.1</t>
+  </si>
+  <si>
+    <t>IFNLB-Primate1-Homo_sapiens|NM_172140.1</t>
+  </si>
+  <si>
+    <t>IFNLB-Primate3-Homo_sapiens|NM_001346937.1</t>
+  </si>
+  <si>
+    <t>IFNLB-Primate2-Homo_sapiens|NM_172138.1</t>
   </si>
 </sst>
 </file>
@@ -186,8 +216,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -199,13 +243,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -535,20 +593,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A11" sqref="A9:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="2" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -556,336 +614,378 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
         <v>18</v>
       </c>
     </row>

--- a/tabular/ifnl-data.xlsx
+++ b/tabular/ifnl-data.xlsx
@@ -1827,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4460,9 +4460,7 @@
       <c r="A66" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B66" s="19">
-        <v>1</v>
-      </c>
+      <c r="B66" s="19"/>
       <c r="C66" s="6" t="s">
         <v>15</v>
       </c>

--- a/tabular/ifnl-data.xlsx
+++ b/tabular/ifnl-data.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="700" windowWidth="33880" windowHeight="25040" tabRatio="500"/>
+    <workbookView xWindow="7680" yWindow="760" windowWidth="38000" windowHeight="24840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="317">
   <si>
     <t>Locus ID</t>
   </si>
@@ -760,6 +761,216 @@
   </si>
   <si>
     <t>Aln-A1-PSI1</t>
+  </si>
+  <si>
+    <t>XM_016209155.1</t>
+  </si>
+  <si>
+    <t>LOC107534162</t>
+  </si>
+  <si>
+    <t>XM_016209154.1</t>
+  </si>
+  <si>
+    <t>LOC107534161</t>
+  </si>
+  <si>
+    <t>XM_016209156.1</t>
+  </si>
+  <si>
+    <t>LOC107534163</t>
+  </si>
+  <si>
+    <t>XM_016166771.1</t>
+  </si>
+  <si>
+    <t>LOC107521776</t>
+  </si>
+  <si>
+    <t>XM_028529978.1</t>
+  </si>
+  <si>
+    <t>Phyllostomus</t>
+  </si>
+  <si>
+    <t>discolor</t>
+  </si>
+  <si>
+    <t>LOC114511296</t>
+  </si>
+  <si>
+    <t>XM_016165226.1</t>
+  </si>
+  <si>
+    <t>LOC107520938</t>
+  </si>
+  <si>
+    <t>HQ201955.1</t>
+  </si>
+  <si>
+    <t>XM_023760578.1</t>
+  </si>
+  <si>
+    <t>lucifugus</t>
+  </si>
+  <si>
+    <t>LOC102440098</t>
+  </si>
+  <si>
+    <t>XM_006096748.3</t>
+  </si>
+  <si>
+    <t>XM_023760577.1</t>
+  </si>
+  <si>
+    <t>XM_023760554.1</t>
+  </si>
+  <si>
+    <t>LOC102438841</t>
+  </si>
+  <si>
+    <t>XM_006761471.2</t>
+  </si>
+  <si>
+    <t>davidii</t>
+  </si>
+  <si>
+    <t>LOC102774772</t>
+  </si>
+  <si>
+    <t>XM_019666264.1</t>
+  </si>
+  <si>
+    <t>LOC109395355</t>
+  </si>
+  <si>
+    <t>XM_015557658.1</t>
+  </si>
+  <si>
+    <t>LOC102768489</t>
+  </si>
+  <si>
+    <t>XM_015589199.2</t>
+  </si>
+  <si>
+    <t>LOC102889807</t>
+  </si>
+  <si>
+    <t>XM_016165227.1</t>
+  </si>
+  <si>
+    <t>LOC107520939</t>
+  </si>
+  <si>
+    <t>XM_023760555.1</t>
+  </si>
+  <si>
+    <t>LOC102439443</t>
+  </si>
+  <si>
+    <t>XM_015589198.1</t>
+  </si>
+  <si>
+    <t>LOC102889565</t>
+  </si>
+  <si>
+    <t>XM_011386751.1</t>
+  </si>
+  <si>
+    <t>vampyrus</t>
+  </si>
+  <si>
+    <t>LOC105310596</t>
+  </si>
+  <si>
+    <t>XM_008161658.2</t>
+  </si>
+  <si>
+    <t>LOC103304876</t>
+  </si>
+  <si>
+    <t>XM_024577418.1</t>
+  </si>
+  <si>
+    <t>LOC112320030</t>
+  </si>
+  <si>
+    <t>XM_024577417.1</t>
+  </si>
+  <si>
+    <t>LOC112320026</t>
+  </si>
+  <si>
+    <t>XM_005886334.2</t>
+  </si>
+  <si>
+    <t>LOC102254487</t>
+  </si>
+  <si>
+    <t>XM_005886333.2</t>
+  </si>
+  <si>
+    <t>LOC102254184</t>
+  </si>
+  <si>
+    <t>XM_005886332.2</t>
+  </si>
+  <si>
+    <t>LOC102253881</t>
+  </si>
+  <si>
+    <t>XM_014541703.1</t>
+  </si>
+  <si>
+    <t>LOC102244333</t>
+  </si>
+  <si>
+    <t>NM_001290171.1</t>
+  </si>
+  <si>
+    <t>LOC107521777</t>
+  </si>
+  <si>
+    <t>XM_028529971.1</t>
+  </si>
+  <si>
+    <t>LOC114511290</t>
+  </si>
+  <si>
+    <t>XM_028529967.1</t>
+  </si>
+  <si>
+    <t>LOC114511283</t>
+  </si>
+  <si>
+    <t>XM_028529976.1</t>
+  </si>
+  <si>
+    <t>LOC114511294</t>
+  </si>
+  <si>
+    <t>XM_028530311.1</t>
+  </si>
+  <si>
+    <t>LOC114511582</t>
+  </si>
+  <si>
+    <t>XM_024577416.1</t>
+  </si>
+  <si>
+    <t>LOC112320025</t>
+  </si>
+  <si>
+    <t>XM_019666252.1</t>
+  </si>
+  <si>
+    <t>LOC109395336</t>
+  </si>
+  <si>
+    <t>XM_028529999.1</t>
+  </si>
+  <si>
+    <t>LOC114511308</t>
   </si>
 </sst>
 </file>
@@ -772,6 +983,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -882,7 +1094,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="287">
+  <cellStyleXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1170,8 +1382,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1208,8 +1442,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="287">
+  <cellStyles count="309">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1353,6 +1588,17 @@
     <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1496,6 +1742,17 @@
     <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1825,10 +2082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4899,9 +5156,7 @@
         <v>175</v>
       </c>
       <c r="B77" s="15"/>
-      <c r="C77" s="11" t="s">
-        <v>182</v>
-      </c>
+      <c r="C77" s="11"/>
       <c r="D77" s="10" t="s">
         <v>164</v>
       </c>
@@ -5083,6 +5338,206 @@
       <c r="P81" s="13">
         <v>0</v>
       </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+    </row>
+    <row r="97" spans="13:15">
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+    </row>
+    <row r="98" spans="13:15">
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+    </row>
+    <row r="99" spans="13:15">
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+    </row>
+    <row r="100" spans="13:15">
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+    </row>
+    <row r="101" spans="13:15">
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+    </row>
+    <row r="102" spans="13:15">
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+    </row>
+    <row r="103" spans="13:15">
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+    </row>
+    <row r="104" spans="13:15">
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+    </row>
+    <row r="105" spans="13:15">
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+    </row>
+    <row r="106" spans="13:15">
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+    </row>
+    <row r="107" spans="13:15">
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="13:15">
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+    </row>
+    <row r="109" spans="13:15">
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+    </row>
+    <row r="110" spans="13:15">
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+    </row>
+    <row r="111" spans="13:15">
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+    </row>
+    <row r="112" spans="13:15">
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+    </row>
+    <row r="113" spans="13:15">
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+    </row>
+    <row r="114" spans="13:15">
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+    </row>
+    <row r="115" spans="13:15">
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+    </row>
+    <row r="116" spans="13:15">
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+    </row>
+    <row r="117" spans="13:15">
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+    </row>
+    <row r="118" spans="13:15">
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+    </row>
+    <row r="119" spans="13:15">
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+    </row>
+    <row r="120" spans="13:15">
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+    </row>
+    <row r="121" spans="13:15">
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
     </row>
   </sheetData>
   <sortState ref="A2:S81">
@@ -5120,4 +5575,873 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>273</v>
+      </c>
+      <c r="H13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>277</v>
+      </c>
+      <c r="H15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>281</v>
+      </c>
+      <c r="H17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>283</v>
+      </c>
+      <c r="H18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>286</v>
+      </c>
+      <c r="H19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>288</v>
+      </c>
+      <c r="H20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>290</v>
+      </c>
+      <c r="H21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>292</v>
+      </c>
+      <c r="H22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>294</v>
+      </c>
+      <c r="H23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>296</v>
+      </c>
+      <c r="H24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>298</v>
+      </c>
+      <c r="H25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>300</v>
+      </c>
+      <c r="H26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>302</v>
+      </c>
+      <c r="H28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>304</v>
+      </c>
+      <c r="H30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>306</v>
+      </c>
+      <c r="H31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>308</v>
+      </c>
+      <c r="H32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>310</v>
+      </c>
+      <c r="H33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>312</v>
+      </c>
+      <c r="H34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>314</v>
+      </c>
+      <c r="H35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>316</v>
+      </c>
+      <c r="H36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/tabular/ifnl-data.xlsx
+++ b/tabular/ifnl-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25440" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="18200" yWindow="2880" windowWidth="29580" windowHeight="19320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="refs.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="406">
   <si>
     <t>IFN-lambda-1</t>
   </si>
@@ -585,9 +585,6 @@
     <t>Species</t>
   </si>
   <si>
-    <t>Accession</t>
-  </si>
-  <si>
     <t>Old name</t>
   </si>
   <si>
@@ -1201,6 +1198,45 @@
   </si>
   <si>
     <t>Monotreme</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>IFNL-A</t>
+  </si>
+  <si>
+    <t>IFNL-B-Monotreme</t>
+  </si>
+  <si>
+    <t>IFNL-B-Marsupial</t>
+  </si>
+  <si>
+    <t>IFNL-B-Placental-1</t>
+  </si>
+  <si>
+    <t>IFNL-B-Placental-1-Orycteropus-rtg</t>
+  </si>
+  <si>
+    <t>IFNL-B-Placental-1-Laurasiatheria-rtg</t>
+  </si>
+  <si>
+    <t>IFNL-B-Placental-2</t>
+  </si>
+  <si>
+    <t>IFNL-B-Placental-2-Hominini-1-</t>
+  </si>
+  <si>
+    <t>IFNL-B-Placental-2-Hominini-2-</t>
+  </si>
+  <si>
+    <t>IFNL-B-Placental-?</t>
+  </si>
+  <si>
+    <t>iIFNL-B-Placental-2-Myotis-rtg</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1380,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="133">
+  <cellStyleXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1478,8 +1514,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1511,8 +1573,14 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="133">
+  <cellStyles count="159">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1579,6 +1647,19 @@
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1645,6 +1726,19 @@
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1982,9 +2076,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -2000,1116 +2094,1183 @@
     <col min="13" max="13" width="12.5" style="3" customWidth="1"/>
     <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.1640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.5" style="3" customWidth="1"/>
-    <col min="17" max="18" width="18.6640625" customWidth="1"/>
+    <col min="16" max="17" width="13.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" customWidth="1"/>
+    <col min="19" max="19" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>105</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="12"/>
       <c r="N2" s="11"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="S2" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="T2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>153</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
       <c r="N3" s="11"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="S3" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="T3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>168</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="12"/>
       <c r="N4" s="11"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="S4" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="T4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>171</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="12"/>
       <c r="N5" s="11"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="S5" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="T5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="12"/>
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="S6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="Q6" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="T6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>95</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="12"/>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="S7" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="T7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>144</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="12"/>
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="S8" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="T8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>182</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="12"/>
       <c r="N9" s="11"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="S9" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="T9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>186</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="12"/>
       <c r="N10" s="11"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="S10" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="T10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>161</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="12"/>
       <c r="N11" s="11"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R11" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="S11" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="T11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>140</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="12"/>
       <c r="N12" s="11"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="S12" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="T12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>124</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
       <c r="N13" s="11"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="S13" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="T13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>116</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="12"/>
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="S14" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="T14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>299</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>177</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="12"/>
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="S15" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="T15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>108</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="12"/>
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R16" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="S16" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="T16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:20">
       <c r="A17" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>119</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="12"/>
       <c r="N17" s="11"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R17" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="S17" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="T17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:20">
       <c r="A18" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>129</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="12"/>
       <c r="N18" s="11"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="S18" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="T18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:20">
       <c r="A19" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
       <c r="N19" s="11"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="11"/>
+      <c r="Q19" s="21" t="s">
+        <v>394</v>
+      </c>
       <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="S19" s="11"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>158</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="12"/>
       <c r="N20" s="11"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="R20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R20" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="S20" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="T20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:20">
       <c r="A21" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H21" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" s="11" t="s">
         <v>392</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>393</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="11"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
-      <c r="Q21" s="11"/>
+      <c r="Q21" s="21" t="s">
+        <v>395</v>
+      </c>
       <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>156</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L22" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="11"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="R22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R22" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="S22" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="T22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:20">
       <c r="A23" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>102</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L23" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M23" s="12">
         <v>1</v>
@@ -3117,52 +3278,55 @@
       <c r="N23" s="11"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R23" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R23" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="S23" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="T23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:20">
       <c r="A24" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>106</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L24" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M24" s="12">
         <v>1</v>
@@ -3170,107 +3334,113 @@
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="11" t="s">
+      <c r="Q24" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R24" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R24" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="S24" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:20">
       <c r="A25" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L25" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M25" s="12">
         <v>1</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q25" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q25" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="R25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R25" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="S25" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="T25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:20">
       <c r="A26" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>154</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L26" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M26" s="12">
         <v>1</v>
@@ -3278,52 +3448,55 @@
       <c r="N26" s="11"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
-      <c r="Q26" s="11" t="s">
+      <c r="Q26" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R26" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="S26" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="T26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:20">
       <c r="A27" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>167</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L27" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M27" s="12">
         <v>1</v>
@@ -3331,52 +3504,55 @@
       <c r="N27" s="11"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
-      <c r="Q27" s="11" t="s">
+      <c r="Q27" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R27" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R27" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="S27" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="T27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:20">
       <c r="A28" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>86</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L28" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M28" s="12">
         <v>1</v>
@@ -3384,52 +3560,55 @@
       <c r="N28" s="11"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
-      <c r="Q28" s="11" t="s">
+      <c r="Q28" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R28" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R28" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="S28" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="T28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:20">
       <c r="A29" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>170</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L29" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M29" s="12">
         <v>1</v>
@@ -3437,52 +3616,55 @@
       <c r="N29" s="11"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
-      <c r="Q29" s="11" t="s">
+      <c r="Q29" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R29" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R29" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="S29" t="s">
+      <c r="S29" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="T29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:20">
       <c r="A30" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>165</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L30" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M30" s="12">
         <v>1</v>
@@ -3490,52 +3672,55 @@
       <c r="N30" s="11"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
-      <c r="Q30" s="11" t="s">
+      <c r="Q30" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R30" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R30" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="S30" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="T30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:20">
       <c r="A31" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>84</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L31" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M31" s="12">
         <v>1</v>
@@ -3543,50 +3728,53 @@
       <c r="N31" s="11"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
-      <c r="Q31" s="11" t="s">
+      <c r="Q31" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R31" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R31" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="S31" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="T31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:20">
       <c r="A32" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L32" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M32" s="12">
         <v>1</v>
@@ -3594,52 +3782,55 @@
       <c r="N32" s="11"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
-      <c r="Q32" s="11" t="s">
-        <v>290</v>
+      <c r="Q32" s="21" t="s">
+        <v>397</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="S32" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>289</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="T32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L33" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M33" s="12">
         <v>1</v>
@@ -3647,52 +3838,55 @@
       <c r="N33" s="11"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R33" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R33" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="S33" t="s">
+      <c r="S33" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="T33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:20">
       <c r="A34" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>174</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L34" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M34" s="12">
         <v>1</v>
@@ -3700,52 +3894,55 @@
       <c r="N34" s="11"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R34" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R34" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="S34" t="s">
+      <c r="S34" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="T34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:20">
       <c r="A35" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>162</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L35" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M35" s="12">
         <v>1</v>
@@ -3753,52 +3950,55 @@
       <c r="N35" s="11"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
-      <c r="Q35" s="11" t="s">
+      <c r="Q35" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R35" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R35" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="S35" t="s">
+      <c r="S35" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="T35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:20">
       <c r="A36" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>90</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L36" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M36" s="12">
         <v>1</v>
@@ -3806,52 +4006,55 @@
       <c r="N36" s="11"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
-      <c r="Q36" s="11" t="s">
+      <c r="Q36" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R36" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R36" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="S36" t="s">
+      <c r="S36" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="T36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:20">
       <c r="A37" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>141</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L37" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M37" s="12">
         <v>1</v>
@@ -3859,109 +4062,115 @@
       <c r="N37" s="11"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
-      <c r="Q37" s="11" t="s">
+      <c r="Q37" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R37" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R37" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="S37" t="s">
+      <c r="S37" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="T37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:20">
       <c r="A38" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>142</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L38" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M38" s="12">
         <v>1</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O38" s="12"/>
       <c r="P38" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q38" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q38" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="R38" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R38" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="S38" t="s">
+      <c r="S38" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="T38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:20">
       <c r="A39" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>122</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K39" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L39" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M39" s="12">
         <v>1</v>
@@ -3969,52 +4178,55 @@
       <c r="N39" s="11"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R39" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R39" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="S39" t="s">
+      <c r="S39" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="T39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:20">
       <c r="A40" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>180</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L40" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M40" s="12">
         <v>1</v>
@@ -4022,52 +4234,55 @@
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
-      <c r="Q40" s="11" t="s">
+      <c r="Q40" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R40" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R40" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="S40" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="T40" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:20">
       <c r="A41" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>115</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K41" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L41" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M41" s="12">
         <v>1</v>
@@ -4075,52 +4290,55 @@
       <c r="N41" s="11"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
-      <c r="Q41" s="11" t="s">
+      <c r="Q41" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R41" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R41" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="S41" t="s">
+      <c r="S41" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="T41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:20">
       <c r="A42" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>110</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K42" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L42" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M42" s="12">
         <v>1</v>
@@ -4128,109 +4346,115 @@
       <c r="N42" s="11"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
-      <c r="Q42" s="11" t="s">
+      <c r="Q42" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R42" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R42" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="S42" t="s">
+      <c r="S42" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="T42" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:20">
       <c r="A43" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>112</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L43" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M43" s="12">
         <v>1</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O43" s="12"/>
       <c r="P43" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q43" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q43" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="R43" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R43" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="S43" t="s">
+      <c r="S43" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="T43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:20">
       <c r="A44" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>133</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L44" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M44" s="12">
         <v>1</v>
@@ -4238,164 +4462,173 @@
       <c r="N44" s="11"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
-      <c r="Q44" s="11" t="s">
+      <c r="Q44" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R44" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R44" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="S44" t="s">
+      <c r="S44" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="T44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:20">
       <c r="A45" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>134</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K45" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L45" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M45" s="12">
         <v>1</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O45" s="12"/>
       <c r="P45" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q45" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q45" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="R45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R45" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="S45" t="s">
+      <c r="S45" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="T45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:20">
       <c r="A46" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>96</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L46" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M46" s="12">
         <v>1</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O46" s="12"/>
       <c r="P46" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q46" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q46" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="R46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R46" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="S46" t="s">
+      <c r="S46" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="T46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:20">
       <c r="A47" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>136</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L47" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M47" s="12">
         <v>1</v>
@@ -4403,166 +4636,175 @@
       <c r="N47" s="11"/>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R47" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R47" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="S47" t="s">
+      <c r="S47" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="T47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:20">
       <c r="A48" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>137</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K48" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L48" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M48" s="12">
         <v>1</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O48" s="12"/>
       <c r="P48" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q48" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q48" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="R48" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R48" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="S48" t="s">
+      <c r="S48" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="T48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:20">
       <c r="A49" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>130</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K49" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L49" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M49" s="12">
         <v>1</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O49" s="12"/>
       <c r="P49" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q49" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q49" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="R49" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R49" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="S49" t="s">
+      <c r="S49" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="T49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:20">
       <c r="A50" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>100</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K50" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L50" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M50" s="12">
         <v>1</v>
@@ -4570,52 +4812,55 @@
       <c r="N50" s="11"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
-      <c r="Q50" s="11" t="s">
+      <c r="Q50" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R50" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R50" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="S50" t="s">
+      <c r="S50" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="T50" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:20">
       <c r="A51" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>104</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K51" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L51" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M51" s="12">
         <v>2</v>
@@ -4623,52 +4868,55 @@
       <c r="N51" s="11"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R51" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R51" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="S51" t="s">
+      <c r="S51" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="T51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:20">
       <c r="A52" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K52" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L52" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M52" s="12">
         <v>2</v>
@@ -4676,52 +4924,55 @@
       <c r="N52" s="11"/>
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
-      <c r="Q52" s="11" t="s">
+      <c r="Q52" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R52" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R52" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="S52" t="s">
+      <c r="S52" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="T52" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:20">
       <c r="A53" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>86</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K53" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L53" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M53" s="12">
         <v>2</v>
@@ -4729,52 +4980,55 @@
       <c r="N53" s="11"/>
       <c r="O53" s="12"/>
       <c r="P53" s="12"/>
-      <c r="Q53" s="11" t="s">
+      <c r="Q53" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R53" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R53" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="S53" t="s">
+      <c r="S53" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="T53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:20">
       <c r="A54" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>172</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K54" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L54" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M54" s="12">
         <v>2</v>
@@ -4782,52 +5036,55 @@
       <c r="N54" s="11"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
-      <c r="Q54" s="11" t="s">
+      <c r="Q54" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R54" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R54" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="S54" t="s">
+      <c r="S54" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="T54" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:20">
       <c r="A55" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>164</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K55" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L55" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M55" s="12">
         <v>2</v>
@@ -4835,166 +5092,175 @@
       <c r="N55" s="11"/>
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
-      <c r="Q55" s="11" t="s">
+      <c r="Q55" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R55" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R55" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="S55" t="s">
+      <c r="S55" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="T55" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:20">
       <c r="A56" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>93</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K56" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L56" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M56" s="12">
         <v>2</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O56" s="12">
         <v>1</v>
       </c>
       <c r="P56" s="12"/>
-      <c r="Q56" s="11" t="s">
+      <c r="Q56" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="R56" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R56" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="S56" t="s">
+      <c r="S56" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="T56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:20">
       <c r="A57" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K57" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K57" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L57" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M57" s="12">
         <v>2</v>
       </c>
       <c r="N57" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O57" s="12">
         <v>2</v>
       </c>
       <c r="P57" s="12"/>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="R57" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R57" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="S57" t="s">
+      <c r="S57" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="T57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:20">
       <c r="A58" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>175</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K58" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L58" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M58" s="12">
         <v>2</v>
@@ -5002,52 +5268,55 @@
       <c r="N58" s="11"/>
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
-      <c r="Q58" s="11" t="s">
+      <c r="Q58" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R58" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R58" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="S58" t="s">
+      <c r="S58" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="T58" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:20">
       <c r="A59" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>143</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J59" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K59" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K59" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L59" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M59" s="12">
         <v>2</v>
@@ -5055,52 +5324,55 @@
       <c r="N59" s="11"/>
       <c r="O59" s="12"/>
       <c r="P59" s="12"/>
-      <c r="Q59" s="11" t="s">
+      <c r="Q59" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R59" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R59" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="S59" t="s">
+      <c r="S59" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="T59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:20">
       <c r="A60" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>183</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J60" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K60" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L60" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M60" s="12">
         <v>2</v>
@@ -5108,52 +5380,55 @@
       <c r="N60" s="11"/>
       <c r="O60" s="12"/>
       <c r="P60" s="12"/>
-      <c r="Q60" s="11" t="s">
+      <c r="Q60" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R60" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R60" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="S60" t="s">
+      <c r="S60" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="T60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="16" customHeight="1">
+    <row r="61" spans="1:20" ht="16" customHeight="1">
       <c r="A61" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>148</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K61" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L61" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M61" s="12">
         <v>2</v>
@@ -5161,52 +5436,55 @@
       <c r="N61" s="11"/>
       <c r="O61" s="12"/>
       <c r="P61" s="12"/>
-      <c r="Q61" s="11" t="s">
+      <c r="Q61" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R61" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R61" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="S61" t="s">
+      <c r="S61" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="T61" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="16" customHeight="1">
+    <row r="62" spans="1:20" ht="16" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>184</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>185</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J62" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K62" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K62" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L62" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M62" s="12">
         <v>2</v>
@@ -5214,52 +5492,55 @@
       <c r="N62" s="11"/>
       <c r="O62" s="12"/>
       <c r="P62" s="12"/>
-      <c r="Q62" s="11" t="s">
+      <c r="Q62" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R62" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R62" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="S62" t="s">
+      <c r="S62" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="T62" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:20">
       <c r="A63" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D63" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>304</v>
-      </c>
       <c r="G63" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>150</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K63" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K63" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L63" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M63" s="12">
         <v>2</v>
@@ -5267,52 +5548,55 @@
       <c r="N63" s="11"/>
       <c r="O63" s="12"/>
       <c r="P63" s="12"/>
-      <c r="Q63" s="11" t="s">
+      <c r="Q63" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R63" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R63" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="S63" t="s">
+      <c r="S63" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="T63" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:20">
       <c r="A64" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>160</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K64" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L64" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M64" s="12">
         <v>2</v>
@@ -5320,52 +5604,55 @@
       <c r="N64" s="11"/>
       <c r="O64" s="12"/>
       <c r="P64" s="12"/>
-      <c r="Q64" s="11" t="s">
+      <c r="Q64" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R64" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R64" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="S64" t="s">
+      <c r="S64" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="T64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:20">
       <c r="A65" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>139</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J65" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K65" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K65" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L65" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M65" s="12">
         <v>2</v>
@@ -5373,52 +5660,55 @@
       <c r="N65" s="11"/>
       <c r="O65" s="12"/>
       <c r="P65" s="12"/>
-      <c r="Q65" s="11" t="s">
+      <c r="Q65" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R65" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R65" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="S65" t="s">
+      <c r="S65" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="T65" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:20">
       <c r="A66" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>121</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J66" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K66" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K66" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L66" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M66" s="12">
         <v>2</v>
@@ -5426,52 +5716,55 @@
       <c r="N66" s="11"/>
       <c r="O66" s="12"/>
       <c r="P66" s="12"/>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R66" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R66" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="S66" t="s">
+      <c r="S66" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="T66" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:20">
       <c r="A67" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>114</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J67" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K67" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K67" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L67" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M67" s="12">
         <v>2</v>
@@ -5479,52 +5772,55 @@
       <c r="N67" s="11"/>
       <c r="O67" s="12"/>
       <c r="P67" s="12"/>
-      <c r="Q67" s="11" t="s">
+      <c r="Q67" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R67" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R67" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="S67" t="s">
+      <c r="S67" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="T67" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:20">
       <c r="A68" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>299</v>
-      </c>
       <c r="F68" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>178</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J68" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K68" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K68" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L68" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M68" s="12">
         <v>2</v>
@@ -5532,52 +5828,55 @@
       <c r="N68" s="11"/>
       <c r="O68" s="12"/>
       <c r="P68" s="12"/>
-      <c r="Q68" s="11" t="s">
+      <c r="Q68" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R68" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R68" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="S68" t="s">
+      <c r="S68" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="T68" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:20">
       <c r="A69" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>109</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J69" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K69" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K69" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L69" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M69" s="12">
         <v>2</v>
@@ -5585,52 +5884,55 @@
       <c r="N69" s="11"/>
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
-      <c r="Q69" s="11" t="s">
+      <c r="Q69" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R69" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R69" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="S69" t="s">
+      <c r="S69" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="T69" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:20">
       <c r="A70" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>132</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J70" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K70" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L70" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M70" s="12">
         <v>2</v>
@@ -5638,52 +5940,55 @@
       <c r="N70" s="11"/>
       <c r="O70" s="12"/>
       <c r="P70" s="12"/>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R70" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R70" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="S70" t="s">
+      <c r="S70" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="T70" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:20">
       <c r="A71" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>118</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J71" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K71" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K71" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L71" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M71" s="12">
         <v>2</v>
@@ -5691,52 +5996,55 @@
       <c r="N71" s="11"/>
       <c r="O71" s="12"/>
       <c r="P71" s="12"/>
-      <c r="Q71" s="11" t="s">
+      <c r="Q71" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R71" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R71" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="S71" t="s">
+      <c r="S71" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="T71" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:20">
       <c r="A72" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>126</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J72" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K72" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K72" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L72" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M72" s="12">
         <v>2</v>
@@ -5744,52 +6052,55 @@
       <c r="N72" s="11"/>
       <c r="O72" s="12"/>
       <c r="P72" s="12"/>
-      <c r="Q72" s="11" t="s">
+      <c r="Q72" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R72" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R72" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="S72" t="s">
+      <c r="S72" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="T72" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:20">
       <c r="A73" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>128</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J73" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K73" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K73" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L73" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M73" s="12">
         <v>2</v>
@@ -5797,52 +6108,55 @@
       <c r="N73" s="11"/>
       <c r="O73" s="12"/>
       <c r="P73" s="12"/>
-      <c r="Q73" s="11" t="s">
+      <c r="Q73" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R73" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R73" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="S73" t="s">
+      <c r="S73" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="T73" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:20">
       <c r="A74" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J74" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K74" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K74" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L74" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M74" s="12">
         <v>2</v>
@@ -5850,260 +6164,275 @@
       <c r="N74" s="11"/>
       <c r="O74" s="12"/>
       <c r="P74" s="12"/>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R74" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R74" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="S74" t="s">
+      <c r="S74" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="T74" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:20">
       <c r="A75" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>92</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J75" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K75" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K75" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L75" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N75" s="11"/>
       <c r="O75" s="12"/>
       <c r="P75" s="12"/>
-      <c r="Q75" s="11" t="s">
+      <c r="Q75" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="R75" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R75" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="S75" t="s">
+      <c r="S75" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="T75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:20">
       <c r="A76" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>146</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J76" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K76" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K76" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L76" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N76" s="11"/>
       <c r="O76" s="12"/>
       <c r="P76" s="12"/>
-      <c r="Q76" s="11" t="s">
+      <c r="Q76" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="R76" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R76" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="S76" t="s">
+      <c r="S76" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="T76" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:20">
       <c r="A77" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D77" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="E77" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>304</v>
-      </c>
       <c r="G77" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>151</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J77" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K77" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K77" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L77" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M77" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N77" s="11"/>
       <c r="O77" s="12"/>
       <c r="P77" s="12"/>
-      <c r="Q77" s="11" t="s">
+      <c r="Q77" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="R77" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R77" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="S77" t="s">
+      <c r="S77" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="T77" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:20">
       <c r="A78" s="9" t="s">
         <v>176</v>
       </c>
       <c r="B78" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E78" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>299</v>
-      </c>
       <c r="F78" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M78" s="12">
         <v>2</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O78" s="12"/>
       <c r="P78" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q78" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q78" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="R78" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S78" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="T78" t="s">
         <v>201</v>
       </c>
-      <c r="R78" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="S78" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H79" s="14"/>
       <c r="I79" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K79" s="14"/>
       <c r="L79" s="18"/>
@@ -6115,40 +6444,43 @@
         <v>15</v>
       </c>
       <c r="R79" s="20" t="s">
-        <v>286</v>
+        <v>15</v>
       </c>
       <c r="S79" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="T79" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:20">
       <c r="A80" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H80" s="14"/>
       <c r="I80" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K80" s="14"/>
       <c r="L80" s="18"/>
@@ -6160,40 +6492,43 @@
         <v>17</v>
       </c>
       <c r="R80" s="20" t="s">
-        <v>287</v>
+        <v>17</v>
       </c>
       <c r="S80" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="T80" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:20">
       <c r="A81" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H81" s="14"/>
       <c r="I81" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K81" s="14"/>
       <c r="L81" s="18"/>
@@ -6205,9 +6540,12 @@
         <v>13</v>
       </c>
       <c r="R81" s="20" t="s">
-        <v>288</v>
+        <v>13</v>
       </c>
       <c r="S81" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="T81" s="20" t="s">
         <v>14</v>
       </c>
     </row>

--- a/tabular/ifnl-data.xlsx
+++ b/tabular/ifnl-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="460" windowWidth="39100" windowHeight="22820" tabRatio="500"/>
+    <workbookView xWindow="6880" yWindow="460" windowWidth="39120" windowHeight="22820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
@@ -1308,9 +1308,6 @@
     <t>IFNLA_Psi_Hsa</t>
   </si>
   <si>
-    <t>Lineage</t>
-  </si>
-  <si>
     <t>?-Rodentia</t>
   </si>
   <si>
@@ -1558,6 +1555,9 @@
   </si>
   <si>
     <t>Marsupials</t>
+  </si>
+  <si>
+    <t>Clade</t>
   </si>
 </sst>
 </file>
@@ -1707,8 +1707,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="369">
+  <cellStyleXfs count="387">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2098,7 +2116,7 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="369">
+  <cellStyles count="387">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2283,6 +2301,15 @@
     <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2467,6 +2494,15 @@
     <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2814,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A101" sqref="A1:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2862,10 +2898,10 @@
         <v>382</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>429</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2879,7 +2915,7 @@
         <v>115</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>195</v>
@@ -2900,10 +2936,10 @@
         <v>215</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M2" t="s">
         <v>195</v>
@@ -2920,7 +2956,7 @@
         <v>115</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>192</v>
@@ -2941,10 +2977,10 @@
         <v>216</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M3" t="s">
         <v>192</v>
@@ -2980,13 +3016,13 @@
         <v>242</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3021,13 +3057,13 @@
         <v>217</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3062,13 +3098,13 @@
         <v>218</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3101,13 +3137,13 @@
         <v>243</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3140,13 +3176,13 @@
         <v>244</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3179,13 +3215,13 @@
         <v>4</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3218,13 +3254,13 @@
         <v>245</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3257,13 +3293,13 @@
         <v>246</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3298,13 +3334,13 @@
         <v>2</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3333,13 +3369,13 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3372,13 +3408,13 @@
         <v>6</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3411,13 +3447,13 @@
         <v>247</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3450,13 +3486,13 @@
         <v>248</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -3489,13 +3525,13 @@
         <v>8</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -3530,13 +3566,13 @@
         <v>221</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -3571,13 +3607,13 @@
         <v>222</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -3610,13 +3646,13 @@
         <v>249</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -3649,13 +3685,13 @@
         <v>250</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -3688,13 +3724,13 @@
         <v>251</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3727,13 +3763,13 @@
         <v>252</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -3766,13 +3802,13 @@
         <v>253</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -3805,13 +3841,13 @@
         <v>254</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -3844,13 +3880,13 @@
         <v>255</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -3879,13 +3915,13 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -3918,13 +3954,13 @@
         <v>256</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -3957,13 +3993,13 @@
         <v>257</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -3996,13 +4032,13 @@
         <v>258</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -4037,13 +4073,13 @@
         <v>223</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -4078,13 +4114,13 @@
         <v>224</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -4117,13 +4153,13 @@
         <v>260</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -4156,13 +4192,13 @@
         <v>4</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -4195,13 +4231,13 @@
         <v>259</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -4234,13 +4270,13 @@
         <v>261</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M36" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -4273,13 +4309,13 @@
         <v>11</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -4314,13 +4350,13 @@
         <v>12</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -4353,13 +4389,13 @@
         <v>262</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -4392,13 +4428,13 @@
         <v>263</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -4431,13 +4467,13 @@
         <v>264</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16" customHeight="1">
@@ -4470,13 +4506,13 @@
         <v>265</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16" customHeight="1">
@@ -4509,13 +4545,13 @@
         <v>266</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M43" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -4548,13 +4584,13 @@
         <v>267</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -4587,13 +4623,13 @@
         <v>268</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -4628,13 +4664,13 @@
         <v>225</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -4667,13 +4703,13 @@
         <v>269</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M47" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -4706,13 +4742,13 @@
         <v>270</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M48" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -4745,13 +4781,13 @@
         <v>271</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -4784,13 +4820,13 @@
         <v>272</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M50" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4823,13 +4859,13 @@
         <v>273</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M51" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -4862,13 +4898,13 @@
         <v>274</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -4901,13 +4937,13 @@
         <v>275</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M53" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4940,13 +4976,13 @@
         <v>276</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M54" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -4981,13 +5017,13 @@
         <v>226</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M55" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -5020,13 +5056,13 @@
         <v>10</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M56" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -5059,13 +5095,13 @@
         <v>277</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M57" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -5098,13 +5134,13 @@
         <v>278</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M58" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="12" customFormat="1" ht="16">
@@ -5135,13 +5171,13 @@
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="M59" t="s">
         <v>431</v>
-      </c>
-      <c r="L59" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="M59" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -5174,13 +5210,13 @@
         <v>227</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M60" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -5218,7 +5254,7 @@
         <v>425</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -5254,7 +5290,7 @@
         <v>425</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -5290,7 +5326,7 @@
         <v>425</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -5326,7 +5362,7 @@
         <v>425</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -5364,7 +5400,7 @@
         <v>425</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -5400,7 +5436,7 @@
         <v>425</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -5436,7 +5472,7 @@
         <v>425</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -5472,7 +5508,7 @@
         <v>425</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -5508,7 +5544,7 @@
         <v>425</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -5546,7 +5582,7 @@
         <v>425</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -5582,7 +5618,7 @@
         <v>425</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -5618,7 +5654,7 @@
         <v>425</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -5654,7 +5690,7 @@
         <v>425</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -5690,7 +5726,7 @@
         <v>425</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -5726,7 +5762,7 @@
         <v>425</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -5762,7 +5798,7 @@
         <v>425</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -5800,7 +5836,7 @@
         <v>425</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -5838,7 +5874,7 @@
         <v>425</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5872,7 +5908,7 @@
         <v>425</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5906,7 +5942,7 @@
         <v>425</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5940,7 +5976,7 @@
         <v>425</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5974,7 +6010,7 @@
         <v>425</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -6008,7 +6044,7 @@
         <v>425</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -6042,7 +6078,7 @@
         <v>425</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -6076,7 +6112,7 @@
         <v>425</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -6110,7 +6146,7 @@
         <v>425</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -6144,7 +6180,7 @@
         <v>425</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -6178,7 +6214,7 @@
         <v>425</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -6212,7 +6248,7 @@
         <v>425</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -6246,7 +6282,7 @@
         <v>425</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -6280,7 +6316,7 @@
         <v>425</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -6314,7 +6350,7 @@
         <v>425</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -6348,7 +6384,7 @@
         <v>425</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -6382,7 +6418,7 @@
         <v>425</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -6416,7 +6452,7 @@
         <v>425</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -6450,7 +6486,7 @@
         <v>425</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -6484,7 +6520,7 @@
         <v>425</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -6518,7 +6554,7 @@
         <v>425</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -6552,7 +6588,7 @@
         <v>425</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -6586,7 +6622,7 @@
         <v>425</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -6620,7 +6656,7 @@
         <v>425</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -6652,7 +6688,7 @@
         <v>424</v>
       </c>
       <c r="L102" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/ifnl-data.xlsx
+++ b/tabular/ifnl-data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/host/IFNL-Evolution/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F81C68-93C6-094C-9BEA-7B06950FCBC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19660" yWindow="0" windowWidth="29160" windowHeight="23660" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A+B" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="408">
   <si>
     <t>retroIFNL1a</t>
   </si>
@@ -258,9 +264,6 @@
     <t>Euarchontoglires</t>
   </si>
   <si>
-    <t>Mammalia</t>
-  </si>
-  <si>
     <t>Vespertilionidae</t>
   </si>
   <si>
@@ -1140,9 +1143,6 @@
     <t>Placental-2-Artiodactyl</t>
   </si>
   <si>
-    <t>Aves</t>
-  </si>
-  <si>
     <t>Dasypus novemcinctus</t>
   </si>
   <si>
@@ -1240,13 +1240,22 @@
   </si>
   <si>
     <t>Ornithorhynchus anatinus</t>
+  </si>
+  <si>
+    <t>Subclade</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2685,49 +2694,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="2" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="35.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>165</v>
+      <c r="G1" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>164</v>
@@ -2738,22 +2747,27 @@
       <c r="J1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>181</v>
+      <c r="K1" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>180</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>321</v>
+      </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -2762,16 +2776,19 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2780,16 +2797,19 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>325</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -2798,16 +2818,19 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>325</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -2816,16 +2839,19 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>325</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -2834,88 +2860,92 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>326</v>
+      </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
-        <v>373</v>
-      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>326</v>
+      </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="10" t="s">
-        <v>373</v>
-      </c>
+      <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>326</v>
+      </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>373</v>
-      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>116</v>
+        <v>406</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>340</v>
+        <v>115</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>116</v>
+        <v>339</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>115</v>
@@ -2927,72 +2957,78 @@
         <v>113</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>308</v>
+        <v>406</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="I11" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>87</v>
       </c>
       <c r="K11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>308</v>
+        <v>406</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>83</v>
@@ -3001,106 +3037,115 @@
         <v>82</v>
       </c>
       <c r="K12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>308</v>
+        <v>406</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="I13" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>85</v>
       </c>
       <c r="K13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>133</v>
+        <v>406</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="I14" s="5" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>149</v>
       </c>
       <c r="K14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>133</v>
+        <v>406</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>132</v>
@@ -3109,36 +3154,39 @@
         <v>131</v>
       </c>
       <c r="K15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>130</v>
+        <v>406</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>343</v>
+        <v>129</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>129</v>
@@ -3147,103 +3195,112 @@
         <v>128</v>
       </c>
       <c r="K16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>81</v>
+        <v>406</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="I17" s="5" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>139</v>
       </c>
       <c r="K17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>81</v>
+        <v>406</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="G18" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="I18" s="5" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>95</v>
       </c>
       <c r="K18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>114</v>
+        <v>406</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>345</v>
+        <v>113</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>116</v>
+        <v>344</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>115</v>
@@ -3255,36 +3312,39 @@
         <v>113</v>
       </c>
       <c r="K19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>109</v>
+        <v>406</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>346</v>
+        <v>108</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>108</v>
@@ -3293,34 +3353,37 @@
         <v>107</v>
       </c>
       <c r="K20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>143</v>
+        <v>406</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>347</v>
+        <v>142</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>142</v>
@@ -3329,34 +3392,37 @@
         <v>141</v>
       </c>
       <c r="K21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>112</v>
+        <v>406</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>348</v>
+        <v>111</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="G22" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>111</v>
@@ -3365,34 +3431,37 @@
         <v>110</v>
       </c>
       <c r="K22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>148</v>
+        <v>406</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>349</v>
+        <v>147</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>147</v>
@@ -3401,324 +3470,351 @@
         <v>146</v>
       </c>
       <c r="K23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="G24" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="J24" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="F25" s="5" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>117</v>
       </c>
       <c r="K25" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="F26" s="5" t="s">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>101</v>
       </c>
       <c r="K26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="G27" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>97</v>
       </c>
       <c r="K27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="F28" s="5" t="s">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="G28" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="L28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L28" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="F29" s="5" t="s">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="G29" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="L29" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="F30" s="5" t="s">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="G30" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>137</v>
       </c>
       <c r="K30" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="F31" s="5" t="s">
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="G31" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>121</v>
       </c>
       <c r="K31" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>393</v>
+        <v>331</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>351</v>
+        <v>90</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>90</v>
@@ -3727,34 +3823,37 @@
         <v>89</v>
       </c>
       <c r="K32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>136</v>
+        <v>406</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>352</v>
+        <v>135</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>106</v>
+        <v>351</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>135</v>
@@ -3763,72 +3862,78 @@
         <v>134</v>
       </c>
       <c r="K33" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>145</v>
+        <v>406</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>353</v>
+        <v>144</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>106</v>
+        <v>352</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>144</v>
       </c>
       <c r="J34" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="L34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>132</v>
@@ -3837,144 +3942,156 @@
         <v>131</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>309</v>
+        <v>406</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>396</v>
+        <v>328</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>80</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>397</v>
+        <v>328</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>80</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="L37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>398</v>
+        <v>328</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="I38" s="7" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>151</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="G39" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>111</v>
@@ -3983,70 +4100,76 @@
         <v>110</v>
       </c>
       <c r="K39" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="D40" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="G40" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="I40" s="7" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="L40" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>386</v>
+        <v>328</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>147</v>
@@ -4055,72 +4178,78 @@
         <v>146</v>
       </c>
       <c r="K41" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>335</v>
+        <v>406</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>395</v>
+        <v>328</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>106</v>
+        <v>356</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>144</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K42" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="L42" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>177</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>399</v>
+        <v>328</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="G43" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>93</v>
@@ -4129,34 +4258,37 @@
         <v>92</v>
       </c>
       <c r="K43" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>133</v>
+        <v>406</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>358</v>
+        <v>132</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="G44" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="H44" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>132</v>
@@ -4165,36 +4297,39 @@
         <v>131</v>
       </c>
       <c r="K44" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L44" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L44" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>130</v>
+        <v>406</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>359</v>
+        <v>129</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="G45" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>129</v>
@@ -4203,106 +4338,115 @@
         <v>128</v>
       </c>
       <c r="K45" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L45" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L45" s="12"/>
-    </row>
-    <row r="46" spans="1:12" ht="16" customHeight="1">
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" ht="16" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>81</v>
+        <v>406</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="G46" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="H46" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H46" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="I46" s="12" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>95</v>
       </c>
       <c r="K46" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L46" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L46" s="12"/>
-    </row>
-    <row r="47" spans="1:12" ht="16" customHeight="1">
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="1:13" ht="16" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>81</v>
+        <v>406</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="G47" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="H47" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>80</v>
       </c>
       <c r="J47" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="L47" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L47" s="12"/>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>109</v>
+        <v>406</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="G48" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>108</v>
@@ -4311,34 +4455,37 @@
         <v>107</v>
       </c>
       <c r="K48" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L48" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L48" s="12"/>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C49" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>362</v>
-      </c>
       <c r="F49" s="12" t="s">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="G49" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>111</v>
@@ -4347,285 +4494,309 @@
         <v>110</v>
       </c>
       <c r="K49" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L49" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="L49" s="12"/>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>118</v>
+        <v>406</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>363</v>
+        <v>117</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="G50" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="I50" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I50" s="12" t="s">
-        <v>118</v>
-      </c>
       <c r="J50" s="12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="L50" s="12"/>
-    </row>
-    <row r="51" spans="1:12">
+        <v>124</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>118</v>
+        <v>406</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>184</v>
+        <v>332</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>363</v>
+        <v>117</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="G51" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="I51" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="J51" s="12" t="s">
         <v>117</v>
       </c>
       <c r="K51" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L51" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L51" s="12"/>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>102</v>
+        <v>406</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>364</v>
+        <v>101</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="G52" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="I52" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="J52" s="12" t="s">
         <v>101</v>
       </c>
       <c r="K52" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L52" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="L52" s="12"/>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" s="12"/>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>98</v>
+        <v>406</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>365</v>
+        <v>97</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="G53" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="I53" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="J53" s="12" t="s">
         <v>97</v>
       </c>
       <c r="K53" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L53" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="L53" s="12"/>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" s="12"/>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" s="12"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="C54" s="12" t="s">
+      <c r="B55" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="F55" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G54" s="12" t="s">
+      <c r="G56" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="H56" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H54" s="12" t="s">
+      <c r="I56" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L54" s="12"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L55" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="J56" s="12" t="s">
         <v>121</v>
       </c>
       <c r="K56" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L56" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L56" s="12"/>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" s="12"/>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>104</v>
+        <v>406</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>400</v>
+        <v>332</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>369</v>
+        <v>103</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>106</v>
+        <v>368</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>105</v>
@@ -4637,108 +4808,117 @@
         <v>103</v>
       </c>
       <c r="K57" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L57" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L57" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>84</v>
+        <v>406</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="G58" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H58" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H58" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="I58" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J58" s="12" t="s">
         <v>87</v>
       </c>
       <c r="K58" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L58" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="L58" s="12"/>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58" s="12"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>84</v>
+        <v>406</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>193</v>
+        <v>332</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="G59" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H59" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H59" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="I59" s="12" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="J59" s="12" t="s">
         <v>119</v>
       </c>
       <c r="K59" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L59" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L59" s="12"/>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>84</v>
+        <v>406</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="G60" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="I60" s="12" t="s">
         <v>83</v>
@@ -4747,106 +4927,115 @@
         <v>82</v>
       </c>
       <c r="K60" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L60" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L60" s="12"/>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60" s="12"/>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>84</v>
+        <v>406</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>196</v>
+        <v>332</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="G61" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H61" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H61" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="I61" s="12" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J61" s="12" t="s">
         <v>99</v>
       </c>
       <c r="K61" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L61" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L61" s="12"/>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" s="12"/>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>84</v>
+        <v>406</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="G62" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H62" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="H62" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="I62" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J62" s="12" t="s">
         <v>85</v>
       </c>
       <c r="K62" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L62" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L62" s="12"/>
-    </row>
-    <row r="63" spans="1:12" s="6" customFormat="1" ht="16">
+      <c r="M62" s="12"/>
+    </row>
+    <row r="63" spans="1:13" s="6" customFormat="1">
       <c r="A63" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>393</v>
+        <v>332</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>371</v>
+        <v>90</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="G63" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="H63" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>90</v>
@@ -4855,106 +5044,115 @@
         <v>89</v>
       </c>
       <c r="K63" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L63" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L63" s="12"/>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63" s="12"/>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>402</v>
+        <v>332</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="G64" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H64" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H64" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="I64" s="12" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="J64" s="12" t="s">
         <v>126</v>
       </c>
       <c r="K64" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L64" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="L64" s="12"/>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64" s="12"/>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>403</v>
+        <v>332</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="G65" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H65" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H65" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="I65" s="12" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="J65" s="12" t="s">
         <v>123</v>
       </c>
       <c r="K65" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L65" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L65" s="12"/>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65" s="12"/>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>399</v>
+        <v>332</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="G66" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="H66" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>93</v>
@@ -4963,32 +5161,35 @@
         <v>92</v>
       </c>
       <c r="K66" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L66" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L66" s="12"/>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66" s="12"/>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C67" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D67" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E67" s="4"/>
       <c r="F67" s="4" t="s">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="G67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>132</v>
@@ -4997,196 +5198,214 @@
         <v>131</v>
       </c>
       <c r="K67" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L67" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L67" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4" t="s">
+      <c r="B69" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" s="4" t="s">
+      <c r="G70" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J68" s="4" t="s">
+      <c r="I70" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J70" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" s="4" t="s">
+      <c r="K70" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" s="4" t="s">
+      <c r="I71" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="I72" s="4" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>160</v>
       </c>
       <c r="K72" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L72" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L72" s="4"/>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C73" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D73" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>130</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="G73" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>129</v>
@@ -5194,31 +5413,34 @@
       <c r="J73" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K73" s="4"/>
+      <c r="K73" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="L73" s="4"/>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C74" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="D74" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>130</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="G74" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>129</v>
@@ -5226,31 +5448,34 @@
       <c r="J74" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K74" s="4"/>
+      <c r="K74" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="L74" s="4"/>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C75" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D75" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>130</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="G75" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>129</v>
@@ -5258,131 +5483,143 @@
       <c r="J75" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K75" s="4"/>
+      <c r="K75" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="L75" s="4"/>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C76" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="D76" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>81</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="G76" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H76" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I76" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>95</v>
       </c>
       <c r="K76" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L76" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L76" s="4"/>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C77" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D77" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>81</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E77" s="4"/>
       <c r="F77" s="4" t="s">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="G77" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>80</v>
       </c>
       <c r="J77" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="L77" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L77" s="4"/>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C78" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="D78" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>81</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E78" s="4"/>
       <c r="F78" s="4" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="G78" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H78" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I78" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J78" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="K78" s="4"/>
       <c r="L78" s="4"/>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C79" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D79" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>156</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>155</v>
@@ -5391,34 +5628,37 @@
         <v>154</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>167</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C80" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="D80" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="G80" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H80" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>108</v>
@@ -5427,64 +5667,70 @@
         <v>107</v>
       </c>
       <c r="K80" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L80" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L80" s="4"/>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C81" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D81" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="G81" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="I81" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="J81" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="K81" s="4"/>
       <c r="L81" s="4"/>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C82" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="D82" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>143</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E82" s="4"/>
       <c r="F82" s="4" t="s">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="G82" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>142</v>
@@ -5493,32 +5739,35 @@
         <v>141</v>
       </c>
       <c r="K82" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L82" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L82" s="4"/>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C83" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D83" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>159</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>158</v>
@@ -5527,363 +5776,396 @@
         <v>157</v>
       </c>
       <c r="K83" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L83" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L83" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C84" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="D84" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="E84" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G84" s="4" t="s">
+      <c r="H84" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="I84" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I84" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="J84" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K84" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L84" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L84" s="4"/>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C85" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D85" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="E85" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G85" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="I85" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>101</v>
       </c>
       <c r="K85" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L85" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L85" s="4"/>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C86" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="D86" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E86" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G86" s="4" t="s">
+      <c r="H86" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="I86" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="J86" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J86" s="4" t="s">
+      <c r="K86" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="L86" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L86" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C87" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D87" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E87" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G87" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G87" s="4" t="s">
+      <c r="H87" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="I87" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K87" s="4"/>
+      <c r="K87" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="L87" s="4"/>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C88" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="D88" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E88" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G88" s="4" t="s">
+      <c r="H88" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="I88" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K88" s="4"/>
+      <c r="K88" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="L88" s="4"/>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88" s="4"/>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4" t="s">
+      <c r="B90" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G89" s="4" t="s">
+      <c r="H90" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="I90" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="J90" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J89" s="4" t="s">
+      <c r="K90" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="3" t="s">
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E90" s="4" t="s">
+      <c r="B91" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G90" s="4" t="s">
+      <c r="H91" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H90" s="4" t="s">
+      <c r="I91" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="J91" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J90" s="4" t="s">
+      <c r="K91" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J92" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E91" s="4" t="s">
+      <c r="K92" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G91" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H91" s="4" t="s">
+      <c r="I93" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="J93" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J91" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J93" s="4" t="s">
+      <c r="K93" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K93" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="L93" s="4"/>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="L93" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="M93" s="4"/>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C94" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="D94" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>105</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>105</v>
@@ -5895,328 +6177,358 @@
         <v>103</v>
       </c>
       <c r="K94" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L94" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L94" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="M94" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C95" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D95" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E95" s="4"/>
       <c r="F95" s="4" t="s">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="G95" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H95" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="I95" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>87</v>
       </c>
       <c r="K95" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L95" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L95" s="4"/>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95" s="4"/>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C96" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="D96" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E96" s="4"/>
       <c r="F96" s="4" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="G96" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H96" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H96" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="I96" s="4" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>119</v>
       </c>
       <c r="K96" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L96" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L96" s="4"/>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96" s="4"/>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C97" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D97" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E97" s="4"/>
       <c r="F97" s="4" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="G97" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H97" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H97" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="I97" s="4" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>99</v>
       </c>
       <c r="K97" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L97" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97" s="4"/>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C98" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="D98" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E98" s="4"/>
       <c r="F98" s="4" t="s">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="G98" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H98" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H98" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="I98" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K98" s="4"/>
+      <c r="K98" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98" s="4"/>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C99" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D99" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E99" s="4"/>
       <c r="F99" s="4" t="s">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="G99" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H99" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H99" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="I99" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K99" s="4"/>
+      <c r="K99" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="L99" s="4"/>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99" s="4"/>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C100" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="D100" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E100" s="4"/>
       <c r="F100" s="4" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="G100" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H100" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H100" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="I100" s="4" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="J100" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K100" s="4"/>
+      <c r="K100" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="L100" s="4"/>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="M100" s="4"/>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G101" s="4" t="s">
+      <c r="B103" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H103" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H101" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="A103" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="I103" s="4" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J103" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K103" s="4"/>
+      <c r="K103" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="M103" s="4"/>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C104" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="D104" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E104" s="4"/>
       <c r="F104" s="4" t="s">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="G104" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H104" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>90</v>
@@ -6225,32 +6537,35 @@
         <v>89</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M104" s="4"/>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C105" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D105" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E105" s="4"/>
       <c r="F105" s="4" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="G105" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H105" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="I105" s="4" t="s">
         <v>90</v>
@@ -6258,65 +6573,71 @@
       <c r="J105" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K105" s="4"/>
+      <c r="K105" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="L105" s="4"/>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105" s="4"/>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C106" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="D106" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>94</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E106" s="4"/>
       <c r="F106" s="4" t="s">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="G106" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H106" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H106" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="I106" s="4" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="J106" s="4" t="s">
         <v>126</v>
       </c>
       <c r="K106" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L106" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106" s="4"/>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C107" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D107" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>94</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E107" s="4"/>
       <c r="F107" s="4" t="s">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="G107" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H107" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="I107" s="4" t="s">
         <v>93</v>
@@ -6325,66 +6646,72 @@
         <v>92</v>
       </c>
       <c r="K107" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L107" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107" s="4"/>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C108" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="D108" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>94</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E108" s="4"/>
       <c r="F108" s="4" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="G108" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H108" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H108" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="I108" s="4" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="K108" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="L108" s="4"/>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108" s="4"/>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>330</v>
+        <v>217</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>311</v>
+        <v>155</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>156</v>
+        <v>310</v>
       </c>
       <c r="I109" s="5" t="s">
         <v>155</v>
@@ -6393,36 +6720,39 @@
         <v>154</v>
       </c>
       <c r="K109" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L109" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L109" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>331</v>
+        <v>176</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D110" s="5" t="s">
         <v>406</v>
       </c>
+      <c r="D110" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="E110" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>311</v>
+        <v>158</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>158</v>
@@ -6431,16 +6761,19 @@
         <v>157</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L110">
-    <sortCondition ref="B2:B110"/>
-    <sortCondition ref="H2:H110"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M110">
+    <sortCondition ref="D2:D110"/>
+    <sortCondition ref="I2:I110"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
